--- a/Data/student/Ahmed.xlsx
+++ b/Data/student/Ahmed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zain4\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athra\SeniorProject\Data\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B58AEC3-FFCA-4625-ADB0-A7CA6AE8E4C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22E2E64A-F494-4C20-B4B3-E05348558939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
   <si>
     <t>student_id</t>
   </si>
@@ -113,13 +113,46 @@
   </si>
   <si>
     <t>B</t>
+  </si>
+  <si>
+    <t>First 2024-2025</t>
+  </si>
+  <si>
+    <t>ITCS 214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data Structures </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGL 219 </t>
+  </si>
+  <si>
+    <t>Technical Report Writing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT 273 </t>
+  </si>
+  <si>
+    <t>Probability and Statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITSE 201 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduction to Software Engineering </t>
+  </si>
+  <si>
+    <t>ITCS 258</t>
+  </si>
+  <si>
+    <t>Discrete Structures</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,6 +164,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -480,23 +519,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.42578125" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="41.453125" customWidth="1"/>
+    <col min="4" max="4" width="36.1796875" customWidth="1"/>
+    <col min="5" max="5" width="17.453125" customWidth="1"/>
+    <col min="9" max="9" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,7 +564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>202308888</v>
       </c>
@@ -551,7 +590,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>202308888</v>
       </c>
@@ -577,7 +616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>202308888</v>
       </c>
@@ -603,7 +642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>202308888</v>
       </c>
@@ -629,7 +668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>202308888</v>
       </c>
@@ -655,7 +694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>202308888</v>
       </c>
@@ -681,7 +720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>202308888</v>
       </c>
@@ -707,7 +746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>202308888</v>
       </c>
@@ -733,7 +772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>202308888</v>
       </c>
@@ -759,7 +798,123 @@
         <v>1</v>
       </c>
     </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>202308888</v>
+      </c>
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>202308888</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>202308888</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>202308888</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>202308888</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Data/student/Ahmed.xlsx
+++ b/Data/student/Ahmed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athra\SeniorProject\Data\student\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Batool\sen project\SeniorProject\Data\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B403E81-C963-4FFE-936B-7E0F994556F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625A7E41-1289-4FB3-B0D0-8110D973D582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,34 +118,34 @@
     <t>First 2024-2025</t>
   </si>
   <si>
-    <t>ITCS 214</t>
-  </si>
-  <si>
     <t xml:space="preserve">Data Structures </t>
   </si>
   <si>
-    <t xml:space="preserve">ENGL 219 </t>
-  </si>
-  <si>
     <t>Technical Report Writing</t>
   </si>
   <si>
-    <t xml:space="preserve">STAT 273 </t>
-  </si>
-  <si>
     <t>Probability and Statistics</t>
   </si>
   <si>
-    <t xml:space="preserve">ITSE 201 </t>
-  </si>
-  <si>
     <t xml:space="preserve">Introduction to Software Engineering </t>
   </si>
   <si>
-    <t>ITCS 258</t>
-  </si>
-  <si>
     <t>Discrete Structures</t>
+  </si>
+  <si>
+    <t>ITCS214</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENGL219 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">STAT273 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITSE201 </t>
+  </si>
+  <si>
+    <t>ITCS258</t>
   </si>
 </sst>
 </file>
@@ -521,8 +521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -803,10 +803,10 @@
         <v>202308888</v>
       </c>
       <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
         <v>32</v>
-      </c>
-      <c r="C11" t="s">
-        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>31</v>
@@ -826,10 +826,10 @@
         <v>202308888</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="C12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D12" t="s">
         <v>31</v>
@@ -838,7 +838,7 @@
         <v>3</v>
       </c>
       <c r="G12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
         <v>1</v>
@@ -849,10 +849,10 @@
         <v>202308888</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
         <v>31</v>
@@ -861,7 +861,7 @@
         <v>3</v>
       </c>
       <c r="G13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
         <v>1</v>
@@ -872,10 +872,10 @@
         <v>202308888</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>31</v>
@@ -895,10 +895,10 @@
         <v>202308888</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>

--- a/Data/student/Ahmed.xlsx
+++ b/Data/student/Ahmed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Batool\sen project\SeniorProject\Data\student\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{625A7E41-1289-4FB3-B0D0-8110D973D582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DF9F630-C3C3-4962-840F-C3A7354FD858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>student_id</t>
   </si>
@@ -145,7 +145,10 @@
     <t xml:space="preserve">ITSE201 </t>
   </si>
   <si>
-    <t>ITCS258</t>
+    <t>section</t>
+  </si>
+  <si>
+    <t>ISLM101</t>
   </si>
 </sst>
 </file>
@@ -183,7 +186,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -206,13 +209,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -519,10 +536,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="79" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -535,7 +552,7 @@
     <col min="9" max="9" width="16.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -563,8 +580,11 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>202308888</v>
       </c>
@@ -590,7 +610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>202308888</v>
       </c>
@@ -616,7 +636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>202308888</v>
       </c>
@@ -642,7 +662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>202308888</v>
       </c>
@@ -668,7 +688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>202308888</v>
       </c>
@@ -694,7 +714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>202308888</v>
       </c>
@@ -720,7 +740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>202308888</v>
       </c>
@@ -746,7 +766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>202308888</v>
       </c>
@@ -772,7 +792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>202308888</v>
       </c>
@@ -798,7 +818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>202308888</v>
       </c>
@@ -820,8 +840,11 @@
       <c r="H11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>202308888</v>
       </c>
@@ -843,8 +866,11 @@
       <c r="H12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>202308888</v>
       </c>
@@ -866,8 +892,11 @@
       <c r="H13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>202308888</v>
       </c>
@@ -889,13 +918,16 @@
       <c r="H14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>202308888</v>
       </c>
       <c r="B15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C15" t="s">
         <v>36</v>
@@ -910,6 +942,9 @@
         <v>1</v>
       </c>
       <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="J15">
         <v>1</v>
       </c>
     </row>
